--- a/Code/Results/Cases/Case_9_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.634747404004941</v>
+        <v>2.639451441140068</v>
       </c>
       <c r="C2">
-        <v>0.6127894357512389</v>
+        <v>0.6158245606470985</v>
       </c>
       <c r="D2">
-        <v>0.07595272751345306</v>
+        <v>0.07804427320194662</v>
       </c>
       <c r="E2">
-        <v>0.07586193555540888</v>
+        <v>0.07352797174310699</v>
       </c>
       <c r="F2">
-        <v>0.3747558519745056</v>
+        <v>0.3569305653862571</v>
       </c>
       <c r="G2">
-        <v>0.2702982633931512</v>
+        <v>0.2350812593782905</v>
       </c>
       <c r="H2">
-        <v>0.001389000586569766</v>
+        <v>0.001078864158897685</v>
       </c>
       <c r="I2">
-        <v>0.001028397766066558</v>
+        <v>0.0008172854985337707</v>
       </c>
       <c r="J2">
-        <v>0.2497727369296925</v>
+        <v>0.2772104864941838</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1281085056064111</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06011611753808488</v>
       </c>
       <c r="N2">
-        <v>0.1656126644007827</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4366187209417163</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1714905315499706</v>
       </c>
       <c r="Q2">
-        <v>1.04485235013766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4387055197543432</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9857401813655144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.29680121124602</v>
+        <v>2.302242021638506</v>
       </c>
       <c r="C3">
-        <v>0.5685919201488332</v>
+        <v>0.5622504763898917</v>
       </c>
       <c r="D3">
-        <v>0.06752702297951174</v>
+        <v>0.06880672965223056</v>
       </c>
       <c r="E3">
-        <v>0.07509959826644463</v>
+        <v>0.07295680851399511</v>
       </c>
       <c r="F3">
-        <v>0.3555685540177151</v>
+        <v>0.3406268749208579</v>
       </c>
       <c r="G3">
-        <v>0.2598700970186556</v>
+        <v>0.2274767758715441</v>
       </c>
       <c r="H3">
-        <v>0.002424266854465673</v>
+        <v>0.001932523002475039</v>
       </c>
       <c r="I3">
-        <v>0.001777163458299924</v>
+        <v>0.00129382896746888</v>
       </c>
       <c r="J3">
-        <v>0.2496678898488938</v>
+        <v>0.276351016236525</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1341609083734721</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0631591015230466</v>
       </c>
       <c r="N3">
-        <v>0.1485870699413212</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3808805129542279</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1542372468506485</v>
       </c>
       <c r="Q3">
-        <v>1.022221473732401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3825355079363533</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.970855418932274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.088880619495853</v>
+        <v>2.094681896579971</v>
       </c>
       <c r="C4">
-        <v>0.5416617879420755</v>
+        <v>0.5297491690592437</v>
       </c>
       <c r="D4">
-        <v>0.06236477263060181</v>
+        <v>0.06316129840060825</v>
       </c>
       <c r="E4">
-        <v>0.07461031640612015</v>
+        <v>0.07259166750168261</v>
       </c>
       <c r="F4">
-        <v>0.3442605950407227</v>
+        <v>0.3309733622903082</v>
       </c>
       <c r="G4">
-        <v>0.2538682495408295</v>
+        <v>0.2231934210418629</v>
       </c>
       <c r="H4">
-        <v>0.003230905253518435</v>
+        <v>0.002603470851047951</v>
       </c>
       <c r="I4">
-        <v>0.002446731185333118</v>
+        <v>0.001762265509335226</v>
       </c>
       <c r="J4">
-        <v>0.2498874487641061</v>
+        <v>0.2759287066603733</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1380935569425024</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06554253112453612</v>
       </c>
       <c r="N4">
-        <v>0.1381559311697771</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3466284394740526</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.143681484692344</v>
       </c>
       <c r="Q4">
-        <v>1.009762660385235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3480109087775176</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.962793498709587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.003982733526016</v>
+        <v>2.009910366777547</v>
       </c>
       <c r="C5">
-        <v>0.5315465382907121</v>
+        <v>0.5174099858873831</v>
       </c>
       <c r="D5">
-        <v>0.06033833140961065</v>
+        <v>0.06093985174648964</v>
       </c>
       <c r="E5">
-        <v>0.07438358076234441</v>
+        <v>0.07242023144915338</v>
       </c>
       <c r="F5">
-        <v>0.3393095327662508</v>
+        <v>0.3266946561766559</v>
       </c>
       <c r="G5">
-        <v>0.2510774313717548</v>
+        <v>0.2211325026887252</v>
       </c>
       <c r="H5">
-        <v>0.003602602428819046</v>
+        <v>0.002913840695033143</v>
       </c>
       <c r="I5">
-        <v>0.002843484363797444</v>
+        <v>0.002081136193162081</v>
       </c>
       <c r="J5">
-        <v>0.2498127565323358</v>
+        <v>0.2755551891229047</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1395898160783613</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0665901056842757</v>
       </c>
       <c r="N5">
-        <v>0.1339766310899932</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3327057343759989</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1394525354254696</v>
       </c>
       <c r="Q5">
-        <v>1.003608232520051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3339738794505678</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9584344470823822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.989812986499999</v>
+        <v>1.995760687574091</v>
       </c>
       <c r="C6">
-        <v>0.5308659747385605</v>
+        <v>0.516362870324059</v>
       </c>
       <c r="D6">
-        <v>0.06009391737038072</v>
+        <v>0.06066091887787195</v>
       </c>
       <c r="E6">
-        <v>0.07431909604942655</v>
+        <v>0.07236871583501742</v>
       </c>
       <c r="F6">
-        <v>0.3379369537727115</v>
+        <v>0.3254646482502253</v>
       </c>
       <c r="G6">
-        <v>0.2500816550752702</v>
+        <v>0.2202994299216954</v>
       </c>
       <c r="H6">
-        <v>0.003669205861934699</v>
+        <v>0.002969629824266851</v>
       </c>
       <c r="I6">
-        <v>0.003009681197942982</v>
+        <v>0.002250343740947791</v>
       </c>
       <c r="J6">
-        <v>0.2495195551641203</v>
+        <v>0.2752174550813322</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1396466946251671</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06670829213696994</v>
       </c>
       <c r="N6">
-        <v>0.1333651257017365</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3304478359545797</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1388295500513337</v>
       </c>
       <c r="Q6">
-        <v>1.000869467020109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.331694706535778</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9561010840959341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.087556375305326</v>
+        <v>2.093340559126148</v>
       </c>
       <c r="C7">
-        <v>0.5442578793809503</v>
+        <v>0.532091847794959</v>
       </c>
       <c r="D7">
-        <v>0.06258942484118535</v>
+        <v>0.06352004773049202</v>
       </c>
       <c r="E7">
-        <v>0.07453598134336492</v>
+        <v>0.07251041853898965</v>
       </c>
       <c r="F7">
-        <v>0.3426720247560695</v>
+        <v>0.328695027484379</v>
       </c>
       <c r="G7">
-        <v>0.2523612514340883</v>
+        <v>0.2239304213377196</v>
       </c>
       <c r="H7">
-        <v>0.003241875102824088</v>
+        <v>0.00261580772003972</v>
       </c>
       <c r="I7">
-        <v>0.002701801161633099</v>
+        <v>0.002061477411411161</v>
       </c>
       <c r="J7">
-        <v>0.2491095421412908</v>
+        <v>0.271720140006579</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1374251473487949</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.065305631805471</v>
       </c>
       <c r="N7">
-        <v>0.1383249398189648</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3465898869719624</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1438182417331149</v>
       </c>
       <c r="Q7">
-        <v>1.004937589661012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3479553493903609</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9558924376149776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.518060648960386</v>
+        <v>2.522972414897993</v>
       </c>
       <c r="C8">
-        <v>0.6011813480855039</v>
+        <v>0.6002280502451356</v>
       </c>
       <c r="D8">
-        <v>0.07338233756888002</v>
+        <v>0.07566731781183478</v>
       </c>
       <c r="E8">
-        <v>0.07551420693312039</v>
+        <v>0.07320512272244462</v>
       </c>
       <c r="F8">
-        <v>0.3660284362845871</v>
+        <v>0.3467410878874801</v>
       </c>
       <c r="G8">
-        <v>0.2646774806617103</v>
+        <v>0.2376906067717997</v>
       </c>
       <c r="H8">
-        <v>0.001714667767843459</v>
+        <v>0.001352782655669738</v>
       </c>
       <c r="I8">
-        <v>0.001540082843138002</v>
+        <v>0.001300952982756343</v>
       </c>
       <c r="J8">
-        <v>0.2486565480967755</v>
+        <v>0.2647454759334593</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1290644291859753</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06048704032025309</v>
       </c>
       <c r="N8">
-        <v>0.1600386540839907</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4176027044062707</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1657508084355328</v>
       </c>
       <c r="Q8">
-        <v>1.0304959891631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4195013162057535</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9666445925413001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359789027369231</v>
+        <v>3.362211918577088</v>
       </c>
       <c r="C9">
-        <v>0.7096711893841245</v>
+        <v>0.7329580866669403</v>
       </c>
       <c r="D9">
-        <v>0.09420670001992448</v>
+        <v>0.09875730624530377</v>
       </c>
       <c r="E9">
-        <v>0.07739092813908599</v>
+        <v>0.0746214283505392</v>
       </c>
       <c r="F9">
-        <v>0.4185961604595505</v>
+        <v>0.3906191226353926</v>
       </c>
       <c r="G9">
-        <v>0.2948944067827526</v>
+        <v>0.2626416387847428</v>
       </c>
       <c r="H9">
-        <v>0.0001653962807188769</v>
+        <v>0.0001058392039806622</v>
       </c>
       <c r="I9">
-        <v>0.0006692303550037693</v>
+        <v>0.0008451638772113412</v>
       </c>
       <c r="J9">
-        <v>0.251509542804385</v>
+        <v>0.2653884751632063</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1158042688630179</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05585086998787325</v>
       </c>
       <c r="N9">
-        <v>0.2024528828516807</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5564720826831504</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2088027250132996</v>
       </c>
       <c r="Q9">
-        <v>1.101242861203914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5593830785093417</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.013504687746007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.982587209435735</v>
+        <v>3.982471226959319</v>
       </c>
       <c r="C10">
-        <v>0.8033472073002486</v>
+        <v>0.8431158195723185</v>
       </c>
       <c r="D10">
-        <v>0.1110376118610787</v>
+        <v>0.1181108386005008</v>
       </c>
       <c r="E10">
-        <v>0.07826307722527498</v>
+        <v>0.07536348483811972</v>
       </c>
       <c r="F10">
-        <v>0.452094835501363</v>
+        <v>0.4137880645151455</v>
       </c>
       <c r="G10">
-        <v>0.3118805172712982</v>
+        <v>0.2896163134715479</v>
       </c>
       <c r="H10">
-        <v>0.0002213671446238408</v>
+        <v>0.000234420100339694</v>
       </c>
       <c r="I10">
-        <v>0.001395583732799466</v>
+        <v>0.0016827881963275</v>
       </c>
       <c r="J10">
-        <v>0.2512272346602415</v>
+        <v>0.2452939470759432</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1053829914669855</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05294915533779765</v>
       </c>
       <c r="N10">
-        <v>0.2228855976093058</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6516224815516409</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.229346680636084</v>
       </c>
       <c r="Q10">
-        <v>1.137148379190563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6550246729691196</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.020460642350059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.313773972188585</v>
+        <v>4.31303398359222</v>
       </c>
       <c r="C11">
-        <v>0.9570573267600366</v>
+        <v>0.9916981715641384</v>
       </c>
       <c r="D11">
-        <v>0.1310621854887728</v>
+        <v>0.1399878194631725</v>
       </c>
       <c r="E11">
-        <v>0.08317316675264319</v>
+        <v>0.08179854745591975</v>
       </c>
       <c r="F11">
-        <v>0.4041701251460168</v>
+        <v>0.3640765344235248</v>
       </c>
       <c r="G11">
-        <v>0.2602056697869699</v>
+        <v>0.2711470077565536</v>
       </c>
       <c r="H11">
-        <v>0.01878890948239231</v>
+        <v>0.01879291320527443</v>
       </c>
       <c r="I11">
-        <v>0.002261084125380286</v>
+        <v>0.002622116771240357</v>
       </c>
       <c r="J11">
-        <v>0.2202582499126535</v>
+        <v>0.1910376107570144</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09290367174344283</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04052922381439039</v>
       </c>
       <c r="N11">
-        <v>0.1477183105870381</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6341995178388515</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1518272128027363</v>
       </c>
       <c r="Q11">
-        <v>0.9629724886354865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6367673360627037</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8465096650068062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.464175979213508</v>
+        <v>4.463562973407079</v>
       </c>
       <c r="C12">
-        <v>1.074105199115564</v>
+        <v>1.098698888287259</v>
       </c>
       <c r="D12">
-        <v>0.1449059635351944</v>
+        <v>0.1542561778695131</v>
       </c>
       <c r="E12">
-        <v>0.0977597831298791</v>
+        <v>0.09703546971549848</v>
       </c>
       <c r="F12">
-        <v>0.3605652978079874</v>
+        <v>0.3237794844402444</v>
       </c>
       <c r="G12">
-        <v>0.2183322452361054</v>
+        <v>0.2444640187930389</v>
       </c>
       <c r="H12">
-        <v>0.0574416371764741</v>
+        <v>0.05744239610224611</v>
       </c>
       <c r="I12">
-        <v>0.002371727108831045</v>
+        <v>0.002714408491514497</v>
       </c>
       <c r="J12">
-        <v>0.1966733253611466</v>
+        <v>0.1663320014145633</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08757774389714834</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03306763601160867</v>
       </c>
       <c r="N12">
-        <v>0.0950900232421148</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5993266158360484</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09767875810855742</v>
       </c>
       <c r="Q12">
-        <v>0.8249042032202851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6011728689110214</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7223264706386345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.482346144117685</v>
+        <v>4.482554192547866</v>
       </c>
       <c r="C13">
-        <v>1.172640939165859</v>
+        <v>1.183669509637809</v>
       </c>
       <c r="D13">
-        <v>0.1550469739876945</v>
+        <v>0.163109735665202</v>
       </c>
       <c r="E13">
-        <v>0.1201158684796617</v>
+        <v>0.119449642545316</v>
       </c>
       <c r="F13">
-        <v>0.3152043772344584</v>
+        <v>0.2870703042097844</v>
       </c>
       <c r="G13">
-        <v>0.1790907655942746</v>
+        <v>0.2038897287153887</v>
       </c>
       <c r="H13">
-        <v>0.1131484203675228</v>
+        <v>0.1131492124967224</v>
       </c>
       <c r="I13">
-        <v>0.002212294270762527</v>
+        <v>0.002556487078642533</v>
       </c>
       <c r="J13">
-        <v>0.1760599265780911</v>
+        <v>0.1583130840073075</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08569142426969689</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02868780712726782</v>
       </c>
       <c r="N13">
-        <v>0.05718678594920235</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5495017699198996</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05881893921752024</v>
       </c>
       <c r="Q13">
-        <v>0.6985398961307538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5506866642885981</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6234255087704383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.434976038758464</v>
+        <v>4.436058884754857</v>
       </c>
       <c r="C14">
-        <v>1.234980448070615</v>
+        <v>1.234634683442096</v>
       </c>
       <c r="D14">
-        <v>0.1605907188454267</v>
+        <v>0.1669155166802057</v>
       </c>
       <c r="E14">
-        <v>0.1404624557009058</v>
+        <v>0.1394746027272511</v>
       </c>
       <c r="F14">
-        <v>0.2827491540873268</v>
+        <v>0.2625183830586977</v>
       </c>
       <c r="G14">
-        <v>0.1530972716108394</v>
+        <v>0.1710622659428722</v>
       </c>
       <c r="H14">
-        <v>0.1624632935999699</v>
+        <v>0.1624623398220422</v>
       </c>
       <c r="I14">
-        <v>0.002069460633711273</v>
+        <v>0.002435696460973524</v>
       </c>
       <c r="J14">
-        <v>0.1630662521501094</v>
+        <v>0.1579376842198172</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08561891113513287</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02722910773996068</v>
       </c>
       <c r="N14">
-        <v>0.03956916359698681</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5082771870766365</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04083351432366022</v>
       </c>
       <c r="Q14">
-        <v>0.6161737985248266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5090245636294668</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5640911207952968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.394754166886628</v>
+        <v>4.396192758351447</v>
       </c>
       <c r="C15">
-        <v>1.246066896465777</v>
+        <v>1.242507891145408</v>
       </c>
       <c r="D15">
-        <v>0.1611370340932012</v>
+        <v>0.1666994886700621</v>
       </c>
       <c r="E15">
-        <v>0.1457260641526936</v>
+        <v>0.1446156166825681</v>
       </c>
       <c r="F15">
-        <v>0.2738517524564372</v>
+        <v>0.256434263412757</v>
       </c>
       <c r="G15">
-        <v>0.146581158442082</v>
+        <v>0.1606717368194879</v>
       </c>
       <c r="H15">
-        <v>0.1749602978128593</v>
+        <v>0.1749573137083331</v>
       </c>
       <c r="I15">
-        <v>0.002093390632039949</v>
+        <v>0.002489453561062227</v>
       </c>
       <c r="J15">
-        <v>0.1601687953025532</v>
+        <v>0.1599428113212866</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08586135995799316</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02729554356827624</v>
       </c>
       <c r="N15">
-        <v>0.03644408927334553</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4951762714934915</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03768241933178196</v>
       </c>
       <c r="Q15">
-        <v>0.5962581007874945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4958205494660106</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5518426259035891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.120486003815586</v>
+        <v>4.123192567926253</v>
       </c>
       <c r="C16">
-        <v>1.183486370040725</v>
+        <v>1.17782339382606</v>
       </c>
       <c r="D16">
-        <v>0.151592230797192</v>
+        <v>0.1545266785238795</v>
       </c>
       <c r="E16">
-        <v>0.1399139166719401</v>
+        <v>0.1388725509862354</v>
       </c>
       <c r="F16">
-        <v>0.267755252015867</v>
+        <v>0.258049275953951</v>
       </c>
       <c r="G16">
-        <v>0.146334012477439</v>
+        <v>0.142376855566809</v>
       </c>
       <c r="H16">
-        <v>0.1621878129237473</v>
+        <v>0.1621586124997805</v>
       </c>
       <c r="I16">
-        <v>0.001812163494760988</v>
+        <v>0.002236547610094064</v>
       </c>
       <c r="J16">
-        <v>0.1638169976911996</v>
+        <v>0.1819811557373825</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08783892087341449</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03038554198335408</v>
       </c>
       <c r="N16">
-        <v>0.03648379447741235</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4658096196661106</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03805157608005061</v>
       </c>
       <c r="Q16">
-        <v>0.6031649811909574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4664794553067253</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5777279430837439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.935954748751556</v>
+        <v>3.939095031847216</v>
       </c>
       <c r="C17">
-        <v>1.10233316984403</v>
+        <v>1.100881198367119</v>
       </c>
       <c r="D17">
-        <v>0.1413462424017666</v>
+        <v>0.1435988673656681</v>
       </c>
       <c r="E17">
-        <v>0.1239018541277304</v>
+        <v>0.1231229813668584</v>
       </c>
       <c r="F17">
-        <v>0.2801778471720837</v>
+        <v>0.2717191868706479</v>
       </c>
       <c r="G17">
-        <v>0.1596848556415793</v>
+        <v>0.1468454148037708</v>
       </c>
       <c r="H17">
-        <v>0.1244222818137928</v>
+        <v>0.1243669117249624</v>
       </c>
       <c r="I17">
-        <v>0.001733997232765461</v>
+        <v>0.002159088833679768</v>
       </c>
       <c r="J17">
-        <v>0.1734403594770413</v>
+        <v>0.1996590871487314</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09003307800531213</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03330754193698748</v>
       </c>
       <c r="N17">
-        <v>0.04433708852236506</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4649463628150556</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04630317100399139</v>
       </c>
       <c r="Q17">
-        <v>0.651487794662259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4658498519076346</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6281184362448471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.808078624825214</v>
+        <v>3.81107858848253</v>
       </c>
       <c r="C18">
-        <v>0.9976670722163021</v>
+        <v>1.005747616470927</v>
       </c>
       <c r="D18">
-        <v>0.1294273823818486</v>
+        <v>0.1320872746609325</v>
       </c>
       <c r="E18">
-        <v>0.1020803645074686</v>
+        <v>0.1015038396759849</v>
       </c>
       <c r="F18">
-        <v>0.3118622359834404</v>
+        <v>0.3004058574856359</v>
       </c>
       <c r="G18">
-        <v>0.1887422830439007</v>
+        <v>0.1688335408779693</v>
       </c>
       <c r="H18">
-        <v>0.07161290999025027</v>
+        <v>0.07154686925865406</v>
       </c>
       <c r="I18">
-        <v>0.001475977830879494</v>
+        <v>0.001848069179278156</v>
       </c>
       <c r="J18">
-        <v>0.1904763617320242</v>
+        <v>0.2187969177213986</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09367772966020071</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03720015920429187</v>
       </c>
       <c r="N18">
-        <v>0.06744139356829848</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4887007268900092</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07011969779833649</v>
       </c>
       <c r="Q18">
-        <v>0.7486839349812442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4900927986901777</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7155884208769407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.735241060071189</v>
+        <v>3.737683880843804</v>
       </c>
       <c r="C19">
-        <v>0.895718238057583</v>
+        <v>0.9151885243038009</v>
       </c>
       <c r="D19">
-        <v>0.118108077473309</v>
+        <v>0.1217072582525134</v>
       </c>
       <c r="E19">
-        <v>0.08471127973592907</v>
+        <v>0.08379717213830773</v>
       </c>
       <c r="F19">
-        <v>0.3561026338016262</v>
+        <v>0.3386601982026818</v>
       </c>
       <c r="G19">
-        <v>0.2289927088381063</v>
+        <v>0.2020557813324473</v>
       </c>
       <c r="H19">
-        <v>0.02634251620155936</v>
+        <v>0.0262898635281914</v>
       </c>
       <c r="I19">
-        <v>0.001601784761231073</v>
+        <v>0.002001337056698027</v>
       </c>
       <c r="J19">
-        <v>0.2123480525603654</v>
+        <v>0.2388549680108625</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09906448646816557</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04262021259926474</v>
       </c>
       <c r="N19">
-        <v>0.1129565465335247</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5315924557449918</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1168476874040039</v>
       </c>
       <c r="Q19">
-        <v>0.8797844099838983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5336686466612051</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8278280036940941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.818695770057616</v>
+        <v>3.819412292635775</v>
       </c>
       <c r="C20">
-        <v>0.788184211723717</v>
+        <v>0.8245889244243472</v>
       </c>
       <c r="D20">
-        <v>0.1074820059899082</v>
+        <v>0.1133243289410899</v>
       </c>
       <c r="E20">
-        <v>0.07784935000962756</v>
+        <v>0.07509083441959952</v>
       </c>
       <c r="F20">
-        <v>0.4380999291075511</v>
+        <v>0.4057736470176536</v>
       </c>
       <c r="G20">
-        <v>0.3024564996940597</v>
+        <v>0.2701285539791698</v>
       </c>
       <c r="H20">
-        <v>0.0001188312488373811</v>
+        <v>0.0001235423583918482</v>
       </c>
       <c r="I20">
-        <v>0.001871748626563807</v>
+        <v>0.002309251591080752</v>
       </c>
       <c r="J20">
-        <v>0.2486927069979004</v>
+        <v>0.259314997026955</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1074060271105921</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05293917361913358</v>
       </c>
       <c r="N20">
-        <v>0.2177528835315741</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6268125199020105</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2242207165042629</v>
       </c>
       <c r="Q20">
-        <v>1.111738097689908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6301090923796551</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.01270820664854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.288338055566271</v>
+        <v>4.28620896421296</v>
       </c>
       <c r="C21">
-        <v>0.8415687446793925</v>
+        <v>0.8881480445866714</v>
       </c>
       <c r="D21">
-        <v>0.1182825935614886</v>
+        <v>0.1292240277356882</v>
       </c>
       <c r="E21">
-        <v>0.07914102327794736</v>
+        <v>0.07565843091547075</v>
       </c>
       <c r="F21">
-        <v>0.4771113839774159</v>
+        <v>0.4200538864284766</v>
       </c>
       <c r="G21">
-        <v>0.3281497161592881</v>
+        <v>0.3456409759637751</v>
       </c>
       <c r="H21">
-        <v>0.0002746847576357014</v>
+        <v>0.0002726295514379196</v>
       </c>
       <c r="I21">
-        <v>0.002731170130323868</v>
+        <v>0.003111411745399195</v>
       </c>
       <c r="J21">
-        <v>0.2551328385211917</v>
+        <v>0.1992259544237527</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1002622635760346</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05145327514921938</v>
       </c>
       <c r="N21">
-        <v>0.2505471913939203</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7106857303055634</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2571700680840365</v>
       </c>
       <c r="Q21">
-        <v>1.180053358064782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.714277378237739</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.007960813384742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.59838773253847</v>
+        <v>4.594237976344743</v>
       </c>
       <c r="C22">
-        <v>0.8787068883139852</v>
+        <v>0.9311840928499464</v>
       </c>
       <c r="D22">
-        <v>0.1256900436937514</v>
+        <v>0.1402638602139632</v>
       </c>
       <c r="E22">
-        <v>0.07985065936416935</v>
+        <v>0.07601566209251442</v>
       </c>
       <c r="F22">
-        <v>0.5015303624659992</v>
+        <v>0.4272817540170237</v>
       </c>
       <c r="G22">
-        <v>0.3438504881319773</v>
+        <v>0.4017070221848371</v>
       </c>
       <c r="H22">
-        <v>0.0006842178260361154</v>
+        <v>0.0006300630577604771</v>
       </c>
       <c r="I22">
-        <v>0.003271134339053461</v>
+        <v>0.003480122124205565</v>
       </c>
       <c r="J22">
-        <v>0.2588246891915986</v>
+        <v>0.1665519099716768</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09568913116515532</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05042208565324025</v>
       </c>
       <c r="N22">
-        <v>0.2660910026036589</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7618007202633237</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2726603563994558</v>
       </c>
       <c r="Q22">
-        <v>1.221297869433982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7654892933610853</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9987640169157856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.433126694592886</v>
+        <v>4.430121349511865</v>
       </c>
       <c r="C23">
-        <v>0.8553988137668114</v>
+        <v>0.9051896586323096</v>
       </c>
       <c r="D23">
-        <v>0.1214216518822582</v>
+        <v>0.1336182847737888</v>
       </c>
       <c r="E23">
-        <v>0.0795388317605632</v>
+        <v>0.07589845087353519</v>
       </c>
       <c r="F23">
-        <v>0.4902067020321823</v>
+        <v>0.4270069350289987</v>
       </c>
       <c r="G23">
-        <v>0.3371170714212468</v>
+        <v>0.3665034928676221</v>
       </c>
       <c r="H23">
-        <v>0.0004453787564526746</v>
+        <v>0.0004251652480041779</v>
       </c>
       <c r="I23">
-        <v>0.00266839014367104</v>
+        <v>0.002916490378631842</v>
       </c>
       <c r="J23">
-        <v>0.2577054420373486</v>
+        <v>0.1887110770006331</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09855619860136944</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05162975302400952</v>
       </c>
       <c r="N23">
-        <v>0.2575086101540762</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7343345533305055</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.26416887322641</v>
       </c>
       <c r="Q23">
-        <v>1.204557603779705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.738012245139295</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.014309520853075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807135655675495</v>
+        <v>3.80779525752115</v>
       </c>
       <c r="C24">
-        <v>0.7732226985818897</v>
+        <v>0.8100591998356492</v>
       </c>
       <c r="D24">
-        <v>0.1058091708991924</v>
+        <v>0.1116911486866172</v>
       </c>
       <c r="E24">
-        <v>0.07823511416602147</v>
+        <v>0.07526223531935727</v>
       </c>
       <c r="F24">
-        <v>0.4459426911891882</v>
+        <v>0.4127359797767767</v>
       </c>
       <c r="G24">
-        <v>0.3101636154050951</v>
+        <v>0.2763972991641026</v>
       </c>
       <c r="H24">
-        <v>2.300742250382903E-06</v>
+        <v>9.191874562053393E-06</v>
       </c>
       <c r="I24">
-        <v>0.001396525438760676</v>
+        <v>0.001734507936437701</v>
       </c>
       <c r="J24">
-        <v>0.2528070201771584</v>
+        <v>0.2633779946121706</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1089274220164818</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05450946337478513</v>
       </c>
       <c r="N24">
-        <v>0.2255896587701045</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6307398024173594</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2322929493432468</v>
       </c>
       <c r="Q24">
-        <v>1.136685390820276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6341263809442808</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.034529342221845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.131954721561328</v>
+        <v>3.135198403508582</v>
       </c>
       <c r="C25">
-        <v>0.6852350363390656</v>
+        <v>0.7022465850434969</v>
       </c>
       <c r="D25">
-        <v>0.08902477880445758</v>
+        <v>0.09273198793727033</v>
       </c>
       <c r="E25">
-        <v>0.07678675891674391</v>
+        <v>0.07418580021418564</v>
       </c>
       <c r="F25">
-        <v>0.401163508382588</v>
+        <v>0.3769721390565834</v>
       </c>
       <c r="G25">
-        <v>0.2836804274144882</v>
+        <v>0.2500101507748482</v>
       </c>
       <c r="H25">
-        <v>0.0004184744271136243</v>
+        <v>0.0002994334579858871</v>
       </c>
       <c r="I25">
-        <v>0.001116995568367862</v>
+        <v>0.001298034185135855</v>
       </c>
       <c r="J25">
-        <v>0.249091064635671</v>
+        <v>0.2685350212597299</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1187448270351137</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05628111955597603</v>
       </c>
       <c r="N25">
-        <v>0.1913623139093019</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5191712061951606</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1975441509290263</v>
       </c>
       <c r="Q25">
-        <v>1.072219320910605</v>
+        <v>0.5218235017646649</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9954134282507852</v>
       </c>
     </row>
   </sheetData>
